--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA275C59-739C-43C0-9CFC-232BEB796FDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049DD04-E165-47BC-806A-E7A1D01F6C38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赚钱王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一桶金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,22 +428,22 @@
     </row>
     <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049DD04-E165-47BC-806A-E7A1D01F6C38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34714D3A-2907-43EA-A77D-E4036C7C5DF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计获得钻石达到100个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
   </si>
   <si>
     <t>第一桶金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得钻石达到100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34714D3A-2907-43EA-A77D-E4036C7C5DF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F3697-88E5-4E5C-BEF6-624460E50664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>成就ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,50 @@
   </si>
   <si>
     <t>获得钻石达到100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一滴血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造30座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点缀星空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得15颗星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次杀死敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,16 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="2"/>
     <col min="11" max="12" width="8.88671875" style="1"/>
   </cols>
@@ -426,23 +470,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F3697-88E5-4E5C-BEF6-624460E50664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C0903-BC56-4F31-A841-B6D9B58E7ED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>成就ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,226 @@
   </si>
   <si>
     <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>步入小康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得钻石达到1000个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中产阶级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得钻石达到10000个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豪交朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得钻石达到100000个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星点灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得45颗星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩瀚星空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集齐所有星星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造100座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建塔狂魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造1000座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大独裁者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢的心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死敌人100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死敌人1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让子弹飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计发出炮弹1000枚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖10座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后悔药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再难回头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖100座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>让我再想想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成全部成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店第一次购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次花钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血拼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店花费1000钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店花费5000钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,15 +656,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="2"/>
     <col min="11" max="12" width="8.88671875" style="1"/>
@@ -550,6 +771,326 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C0903-BC56-4F31-A841-B6D9B58E7ED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D8A2F-DE3B-4044-B80D-3E89206FF484}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>成就ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一桶金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得钻石达到100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中产阶级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得钻石达到10000个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得钻石达到100000个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星星点灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后悔药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再难回头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖100座防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -298,18 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在商店第一次购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次花钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血拼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +284,164 @@
   <si>
     <t>5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产大亨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖50座防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优柔寡断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮灰之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被50个敌人到达营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计射出箭1000发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一箭穿心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有所获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/2</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/3</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/4</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/5</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/6</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/7</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/8</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/9</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/10</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/11</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/12</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/13</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/14</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/15</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/16</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/17</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/18</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/19</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Unfinished/20</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/2</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/3</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/4</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/5</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/6</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/7</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/8</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/9</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/10</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/11</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/12</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/13</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/14</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/15</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/16</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/17</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/18</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/19</t>
+  </si>
+  <si>
+    <t>Main/Achievement/Finished/20</t>
   </si>
 </sst>
 </file>
@@ -658,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,7 +781,9 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="31.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="2" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="2"/>
     <col min="11" max="12" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -691,21 +807,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -713,59 +829,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -773,322 +889,322 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementInfo.xlsx
+++ b/Excel/AchievementInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D8A2F-DE3B-4044-B80D-3E89206FF484}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC2C45-56AA-47F1-BAD1-B58C51215C66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,18 +223,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杀死敌人100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杀死敌人1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让子弹飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +434,14 @@
   </si>
   <si>
     <t>Main/Achievement/Finished/20</t>
+  </si>
+  <si>
+    <t>杀死敌人数目达到1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死敌人数目达到10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,14 +773,14 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.109375" style="2" customWidth="1"/>
     <col min="6" max="10" width="8.88671875" style="2"/>
@@ -818,10 +818,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -838,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -858,10 +858,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -872,16 +872,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -898,10 +898,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -918,10 +918,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
@@ -932,19 +932,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,13 +958,13 @@
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
@@ -998,10 +998,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
@@ -1018,10 +1018,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>50</v>
@@ -1035,16 +1035,16 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,16 +1055,16 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,16 +1072,16 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
@@ -1092,19 +1092,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,19 +1112,19 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,16 +1132,16 @@
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>37</v>
@@ -1152,16 +1152,16 @@
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
@@ -1172,39 +1172,39 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
